--- a/public/template_pppk.xlsx
+++ b/public/template_pppk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\eformasi\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1154304-B5CF-4AA3-9A0C-F8D64BCFD772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4113DDEE-FD53-46FC-A2BC-F29B80CBF7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B1EC5B6F-CC3E-4283-9BB0-A85801999FC5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>unor_id</t>
+  </si>
+  <si>
+    <t>S-1 PENDIDIKAN DASAR</t>
+  </si>
+  <si>
+    <t>AHLI PERTAMA - GURU FIQIH</t>
+  </si>
+  <si>
+    <t>39384221EB106702E050640A29027F86</t>
   </si>
 </sst>
 </file>
@@ -400,13 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61D35-9721-4762-9C8E-4B6D8ACEAD1F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -423,6 +435,23 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>367200000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
